--- a/Experiment.xlsx
+++ b/Experiment.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\morga\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FA6014-CA9B-47F2-9837-22CE46859E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C23529-4E58-433D-BAA3-312622C61F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="0" windowWidth="28800" windowHeight="15435" activeTab="4" xr2:uid="{B1629EBB-0254-4B30-9163-D945A3041357}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{B1629EBB-0254-4B30-9163-D945A3041357}"/>
   </bookViews>
   <sheets>
-    <sheet name="Single Model" sheetId="1" r:id="rId1"/>
-    <sheet name="Dual model" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId4"/>
-    <sheet name="Configurations" sheetId="7" r:id="rId5"/>
+    <sheet name="Single Configurations" sheetId="7" r:id="rId1"/>
+    <sheet name="Dual Configurations" sheetId="2" r:id="rId2"/>
+    <sheet name="Comparisons" sheetId="4" r:id="rId3"/>
+    <sheet name="Grid search times" sheetId="8" r:id="rId4"/>
+    <sheet name="Directional Accuracy" sheetId="9" r:id="rId5"/>
+    <sheet name="Optimisation Grid" sheetId="10" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="test_1" localSheetId="1">'Dual model'!$D$2:$E$11</definedName>
+    <definedName name="test_1" localSheetId="1">'Dual Configurations'!$D$2:$E$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="145">
   <si>
     <t>Dataset 1 LENGTH</t>
   </si>
@@ -71,27 +72,6 @@
     <t>Dataset 1 ANGLE RMSE</t>
   </si>
   <si>
-    <t>MLP Total</t>
-  </si>
-  <si>
-    <t>CNN Total</t>
-  </si>
-  <si>
-    <t>TCN Total</t>
-  </si>
-  <si>
-    <t>μ = 0.0656437989 | σ = 0.01039664587</t>
-  </si>
-  <si>
-    <t>μ = 0.1639998882 |σ = 0.002885237</t>
-  </si>
-  <si>
-    <t>μ = 0.18655871271453  |σ = 0.007248279</t>
-  </si>
-  <si>
-    <t>μ =  0.16253857249658|σ = 0.0037100977983</t>
-  </si>
-  <si>
     <t>Dataset 2 ANGLE RMSE</t>
   </si>
   <si>
@@ -104,365 +84,291 @@
     <t>Dataset 3 LENGTH</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">μ = 0.09008 </t>
+    <t>D1 slope</t>
+  </si>
+  <si>
+    <t>D1 length</t>
+  </si>
+  <si>
+    <t>D2 slope</t>
+  </si>
+  <si>
+    <t>D2 length</t>
+  </si>
+  <si>
+    <t>D3 slope</t>
+  </si>
+  <si>
+    <t>D3 length</t>
+  </si>
+  <si>
+    <t>new/old</t>
+  </si>
+  <si>
+    <t>Slope</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Dataset 1 dir acc</t>
+  </si>
+  <si>
+    <t>Dataset 2 dir acc</t>
+  </si>
+  <si>
+    <t>Dataset 3 dir acc</t>
+  </si>
+  <si>
+    <t>Dual</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>Temp Dir Acc</t>
+  </si>
+  <si>
+    <t>S&amp;P500 Dir Acc</t>
+  </si>
+  <si>
+    <t>Voltage Dir Acc</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>μ = 0.066 | σ = 0.007 | tp = 44 | tn = 42 | fp = 8 | fn = 6</t>
+  </si>
+  <si>
+    <t>accuracy = 0.85 | sensitivity = 0.896 | specificity = 0.718 | F1 = 0.797</t>
+  </si>
+  <si>
+    <t>μ = 0.573 | σ = 0.005 | tp = 1016 | tn = 279 | fp = 111 | fn = 124</t>
+  </si>
+  <si>
+    <t>accuracy = 0.846 | sensitivity = 0.891 | specificity = 0.715 | F1 = 0.794</t>
+  </si>
+  <si>
+    <t>μ = 0.062 | σ = 0.011 | tp = 42 | tn = 43 | fp = 7 | fn = 8</t>
+  </si>
+  <si>
+    <t>μ = 0.06 | σ = 0.006 | tp = 46 | tn = 44 | fp = 6 | fn = 4</t>
+  </si>
+  <si>
+    <t>accuracy = 0.9 | sensitivity = 0.92 | specificity = 0.88 | F1 = 0.9</t>
+  </si>
+  <si>
+    <t>μ = 0.57 | σ = 0.003 | tp = 1021 | tn = 280 | fp = 110 | fn = 119</t>
+  </si>
+  <si>
+    <t>μ = 0.581 | σ = 0.003 | tp = 1011 | tn = 280 | fp = 110 | fn = 129</t>
+  </si>
+  <si>
+    <t>accuracy = 0.844 | sensitivity = 0.887 | specificity = 0.718 | F1 = 0.794</t>
+  </si>
+  <si>
+    <t>μ = 0.292 | σ = 0.003 | tp = 200 | tn = 219 | fp = 121 | fn = 100</t>
+  </si>
+  <si>
+    <t>accuracy = 0.655 | sensitivity = 0.667 | specificity = 0.644 | F1 = 0.655</t>
+  </si>
+  <si>
+    <t>μ = 0.29 | σ = 0.003 | tp = 197 | tn = 235 | fp = 105 | fn = 103</t>
+  </si>
+  <si>
+    <t>accuracy = 0.675 | sensitivity = 0.657 | specificity = 0.691 | F1 = 0.673</t>
+  </si>
+  <si>
+    <t>μ = 0.294 | σ = 0.002 | tp = 191 | tn = 236 | fp = 104 | fn = 109</t>
+  </si>
+  <si>
+    <t>accuracy = 0.667 | sensitivity = 0.637 | specificity = 0.694 | F1 = 0.664</t>
+  </si>
+  <si>
+    <t>μ = 0.163 | σ = 0.007</t>
+  </si>
+  <si>
+    <t>μ = 0.168 | σ = 0.003</t>
+  </si>
+  <si>
+    <t>μ = 0.162 | σ = 0.006</t>
+  </si>
+  <si>
+    <t>μ = 0.107 | σ = 0.007</t>
+  </si>
+  <si>
+    <t>μ = 0.185 | σ = 0.004</t>
+  </si>
+  <si>
+    <t>μ = 0.187 | σ = 0.002</t>
+  </si>
+  <si>
+    <t>μ = 0.100 | σ = 0.006</t>
+  </si>
+  <si>
+    <t>μ = 0.185 | σ = 0.002</t>
+  </si>
+  <si>
+    <t>μ = 0.577 | σ = 0.005 | tp = 1021 | tn = 277 | fp = 105 | fn = 127</t>
+  </si>
+  <si>
+    <t>accuracy = 0.848 | sensitivity = 0.889 | specificity = 0.725 | F1 = 0.799</t>
+  </si>
+  <si>
+    <t>μ = 0.109 | σ = 0.006</t>
+  </si>
+  <si>
+    <t>μ = 0.296 | σ = 0.004 | tp = 192 | tn = 242 | fp = 74 | fn = 122</t>
+  </si>
+  <si>
+    <t>accuracy = 0.689 | sensitivity = 0.611 | specificity = 0.766 | F1 = 0.68</t>
+  </si>
+  <si>
+    <t>μ = 0.575 | σ = 0.008 | tp = 1017 | tn = 277 | fp = 113 | fn = 123</t>
+  </si>
+  <si>
+    <t>accuracy = 0.846 | sensitivity = 0.892 | specificity = 0.71 | F1 = 0.791</t>
+  </si>
+  <si>
+    <t>μ = 0.105 | σ = 0.013</t>
+  </si>
+  <si>
+    <t>μ = 0.293 | σ = 0.005 | tp = 225 | tn = 210 | fp = 105 | fn = 90</t>
+  </si>
+  <si>
+    <t>accuracy = 0.69 | sensitivity = 0.714 | specificity = 0.667 | F1 = 0.69</t>
+  </si>
+  <si>
+    <t>μ = 0.187 | σ = 0.003</t>
+  </si>
+  <si>
+    <t>μ = 0.585 | σ = 0.005 | tp = 1018 | tn = 288 | fp = 95 | fn = 129</t>
+  </si>
+  <si>
+    <t>accuracy = 0.854 | sensitivity = 0.888 | specificity = 0.752 | F1 = 0.814</t>
+  </si>
+  <si>
+    <t>μ = 0.122 | σ = 0.004</t>
+  </si>
+  <si>
+    <t>μ = 0.294 | σ = 0.004 | tp = 221 | tn = 209 | fp = 108 | fn = 92</t>
+  </si>
+  <si>
+    <t>accuracy = 0.683 | sensitivity = 0.706 | specificity = 0.659 | F1 = 0.682</t>
+  </si>
+  <si>
+    <t>μ = 0.189 | σ = 0.002</t>
+  </si>
+  <si>
+    <t>μ = 0.07 | σ = 0.005 | tp = 44 | tn = 52 | fp = 7 | fn = 7</t>
+  </si>
+  <si>
+    <t>accuracy = 0.873 | sensitivity = 0.863 | specificity = 0.881 | F1 = 0.872</t>
+  </si>
+  <si>
+    <t>μ = 0.173 | σ = 0.005</t>
+  </si>
+  <si>
+    <t>μ = 0.072 | σ = 0.006 | tp = 38 | tn = 50 | fp = 8 | fn = 14</t>
+  </si>
+  <si>
+    <t>accuracy = 0.8 | sensitivity = 0.731 | specificity = 0.862 | F1 = 0.791</t>
+  </si>
+  <si>
+    <t>μ = 0.173 | σ = 0.006</t>
+  </si>
+  <si>
+    <t>μ = 0.079 | σ = 0.012 | tp = 41 | tn = 46 | fp = 11 | fn = 12</t>
+  </si>
+  <si>
+    <t>accuracy = 0.791 | sensitivity = 0.774 | specificity = 0.807 | F1 = 0.79</t>
+  </si>
+  <si>
+    <t>μ = 0.170 | σ = 0.007</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>Improvement</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>μ = 0.101 | σ = 0.008</t>
+  </si>
+  <si>
+    <t>Dual pred</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Train Time</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>accuracy = 0.86 | sensitivity = 0.88 | specificity = 0.84 | F1 = 0.860</t>
+  </si>
+  <si>
+    <t>accuracy = 0.85 | sensitivity = 0.84 | specificity = 0.86 | F1 = 0.850</t>
+  </si>
+  <si>
+    <t>Nodes per layer</t>
+  </si>
+  <si>
+    <t>32, 64, 128</t>
+  </si>
+  <si>
+    <t>Learning rate</t>
+  </si>
+  <si>
+    <t>Sequence Length</t>
+  </si>
+  <si>
+    <t>Dropout</t>
+  </si>
+  <si>
+    <t>Kernel Size</t>
+  </si>
+  <si>
+    <t>0.01, 0.001</t>
+  </si>
+  <si>
+    <t>0.0, 0.1, 0.2, 0.3</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>0.0, 0.1, 0.2</t>
+  </si>
+  <si>
+    <t>4, 6, 8, 10</t>
+  </si>
+  <si>
+    <t>2, 4</t>
+  </si>
+  <si>
+    <t>Total models</t>
+  </si>
+  <si>
+    <r>
+      <t>hidden_size</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>σ = 0.0034</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">μ = 0.10198 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>σ = 0.0058985</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>μ = 0.2921</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>σ = 0.0081</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>μ = 0.10747</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>σ = 0.01226</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>μ = 0.18595</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>σ = 0.00246</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">μ = 0.18414 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>σ = 0.00333</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">μ = 0.30113 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>σ = 0.009603</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">μ = 0.2965 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>σ = 0.00424</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">μ = 0.18613 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>σ = 0.00743</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>μ = 0.572</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>σ = 0.011</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>μ = 0.568</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>σ = 0.009</t>
-    </r>
-  </si>
-  <si>
-    <t>D1 slope</t>
-  </si>
-  <si>
-    <t>D1 length</t>
-  </si>
-  <si>
-    <t>D2 slope</t>
-  </si>
-  <si>
-    <t>D2 length</t>
-  </si>
-  <si>
-    <t>D3 slope</t>
-  </si>
-  <si>
-    <t>D3 length</t>
-  </si>
-  <si>
-    <t>new/old</t>
-  </si>
-  <si>
-    <t>Slope</t>
-  </si>
-  <si>
-    <t>Duration</t>
-  </si>
-  <si>
-    <t>Dataset 1 dir acc</t>
-  </si>
-  <si>
-    <t>Dataset 2 dir acc</t>
-  </si>
-  <si>
-    <t>Dataset 3 dir acc</t>
-  </si>
-  <si>
-    <t>Dual</t>
-  </si>
-  <si>
-    <t>Single</t>
-  </si>
-  <si>
-    <r>
-      <t>μ = 0.560</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>σ = 0.003</t>
-    </r>
-  </si>
-  <si>
-    <t>Temp Dir Acc</t>
-  </si>
-  <si>
-    <t>S&amp;P500 Dir Acc</t>
-  </si>
-  <si>
-    <t>Voltage Dir Acc</t>
-  </si>
-  <si>
-    <t>avg</t>
-  </si>
-  <si>
-    <r>
-      <t>hidden_size</t>
-    </r>
-    <r>
-      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFD4D4D4"/>
         <rFont val="Consolas"/>
@@ -472,6 +378,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFB5CEA8"/>
         <rFont val="Consolas"/>
@@ -482,10 +389,86 @@
   </si>
   <si>
     <r>
+      <t>hidden_size</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>128</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>hidden_size</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>64</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>hidden_size</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>32</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>lr</t>
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFD4D4D4"/>
         <rFont val="Consolas"/>
@@ -495,6 +478,507 @@
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.001</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>lr</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.0001</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>lr</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.001</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>batch_size</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>64</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>batch_size</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>64</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>seq_length</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>seq_length</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>seq_length</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>dropout</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>dropout</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>dropout</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>dropout</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>training_epochs</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>training_epochs</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>training_epochs</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>100</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>training_epochs</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>500</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>kernel_size</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>n_layers</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>n_layers</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>hidden_size</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>128</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>lr</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFB5CEA8"/>
         <rFont val="Consolas"/>
@@ -505,10 +989,36 @@
   </si>
   <si>
     <r>
-      <t>batch_size</t>
+      <t>lr</t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.01</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>dropout</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFD4D4D4"/>
         <rFont val="Consolas"/>
@@ -518,12 +1028,13 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFB5CEA8"/>
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>64</t>
+      <t>0.2</t>
     </r>
   </si>
   <si>
@@ -532,6 +1043,32 @@
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>training_epochs</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFD4D4D4"/>
         <rFont val="Consolas"/>
@@ -541,64 +1078,57 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFB5CEA8"/>
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>0.2</t>
-    </r>
-  </si>
-  <si>
-    <t>accuracy = 0.85 | sensitivity = 0.84 | specificity = 0.86 | F1 = 0.8498823529411764</t>
-  </si>
-  <si>
-    <t>Res</t>
-  </si>
-  <si>
-    <t>μ = 0.059 | σ = 0.006</t>
-  </si>
-  <si>
-    <t>μ = 0.065 | σ = 0.005</t>
-  </si>
-  <si>
-    <r>
-      <t>training_epochs</t>
+      <t>50</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>seq_length</t>
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFD4D4D4"/>
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t> = </t>
+      <t>=</t>
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFB5CEA8"/>
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>2000</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>seq_length</t>
+      <t>8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>kernel_size</t>
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFD4D4D4"/>
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t> = </t>
+      <t>=</t>
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFB5CEA8"/>
         <rFont val="Consolas"/>
@@ -608,127 +1138,12 @@
     </r>
   </si>
   <si>
-    <t>accuracy = 0.86 | sensitivity = 0.88 | specificity = 0.84 | F1 = 0.8595348837209302</t>
-  </si>
-  <si>
-    <r>
-      <t>lr</t>
+    <r>
+      <t>n_layers</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t> = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>0.001</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>dropout</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t> = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>0.1</t>
-    </r>
-  </si>
-  <si>
-    <t>μ = 0.066 | σ = 0.007 | tp = 44 | tn = 42 | fp = 8 | fn = 6</t>
-  </si>
-  <si>
-    <r>
-      <t>hidden_size</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t> = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>128</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>training_epochs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t> = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>50</t>
-    </r>
-  </si>
-  <si>
-    <t>accuracy = 0.85 | sensitivity = 0.896 | specificity = 0.718 | F1 = 0.797</t>
-  </si>
-  <si>
-    <t>μ = 0.573 | σ = 0.005 | tp = 1016 | tn = 279 | fp = 111 | fn = 124</t>
-  </si>
-  <si>
-    <t>accuracy = 0.846 | sensitivity = 0.891 | specificity = 0.715 | F1 = 0.794</t>
-  </si>
-  <si>
-    <t>μ = 0.062 | σ = 0.011 | tp = 42 | tn = 43 | fp = 7 | fn = 8</t>
-  </si>
-  <si>
-    <t>μ = 0.06 | σ = 0.006 | tp = 46 | tn = 44 | fp = 6 | fn = 4</t>
-  </si>
-  <si>
-    <t>accuracy = 0.9 | sensitivity = 0.92 | specificity = 0.88 | F1 = 0.9</t>
-  </si>
-  <si>
-    <r>
-      <t>hidden_size</t>
-    </r>
-    <r>
-      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFD4D4D4"/>
         <rFont val="Consolas"/>
@@ -738,305 +1153,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>64</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>lr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>0.001</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>batch_size</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>64</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>seq_length</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>8</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>dropout</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>0.2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>training_epochs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>2000</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>kernel_size</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>n_layers</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>hidden_size</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>128</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>lr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>0.01</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>seq_length</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>dropout</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>0.0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>training_epochs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>100</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>n_layers</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFB5CEA8"/>
         <rFont val="Consolas"/>
@@ -1046,234 +1163,12 @@
     </r>
   </si>
   <si>
-    <t>μ = 0.57 | σ = 0.003 | tp = 1021 | tn = 280 | fp = 110 | fn = 119</t>
-  </si>
-  <si>
-    <r>
-      <t>dropout</t>
+    <r>
+      <t>n_layers</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>0.1</t>
-    </r>
-  </si>
-  <si>
-    <t>μ = 0.581 | σ = 0.003 | tp = 1011 | tn = 280 | fp = 110 | fn = 129</t>
-  </si>
-  <si>
-    <t>accuracy = 0.844 | sensitivity = 0.887 | specificity = 0.718 | F1 = 0.794</t>
-  </si>
-  <si>
-    <r>
-      <t>seq_length</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>6</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>training_epochs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>500</t>
-    </r>
-  </si>
-  <si>
-    <t>μ = 0.292 | σ = 0.003 | tp = 200 | tn = 219 | fp = 121 | fn = 100</t>
-  </si>
-  <si>
-    <t>accuracy = 0.655 | sensitivity = 0.667 | specificity = 0.644 | F1 = 0.655</t>
-  </si>
-  <si>
-    <t>μ = 0.29 | σ = 0.003 | tp = 197 | tn = 235 | fp = 105 | fn = 103</t>
-  </si>
-  <si>
-    <t>accuracy = 0.675 | sensitivity = 0.657 | specificity = 0.691 | F1 = 0.673</t>
-  </si>
-  <si>
-    <r>
-      <t>dropout</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>0.3</t>
-    </r>
-  </si>
-  <si>
-    <t>μ = 0.294 | σ = 0.002 | tp = 191 | tn = 236 | fp = 104 | fn = 109</t>
-  </si>
-  <si>
-    <t>accuracy = 0.667 | sensitivity = 0.637 | specificity = 0.694 | F1 = 0.664</t>
-  </si>
-  <si>
-    <r>
-      <t>lr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>0.0001</t>
-    </r>
-  </si>
-  <si>
-    <t>μ = 0.163 | σ = 0.007</t>
-  </si>
-  <si>
-    <r>
-      <t>hidden_size</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>32</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>kernel_size</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>6</t>
-    </r>
-  </si>
-  <si>
-    <t>μ = 0.168 | σ = 0.003</t>
-  </si>
-  <si>
-    <r>
-      <t>n_layers</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <t>μ = 0.162 | σ = 0.006</t>
-  </si>
-  <si>
-    <t>μ = 0.107 | σ = 0.007</t>
-  </si>
-  <si>
-    <r>
-      <t>n_layers</t>
-    </r>
-    <r>
-      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFD4D4D4"/>
         <rFont val="Consolas"/>
@@ -1283,88 +1178,31 @@
     </r>
   </si>
   <si>
-    <t>μ = 0.185 | σ = 0.004</t>
-  </si>
-  <si>
-    <t>μ = 0.187 | σ = 0.002</t>
-  </si>
-  <si>
-    <t>μ = 0.100 | σ = 0.006</t>
-  </si>
-  <si>
-    <t>μ = 0.185 | σ = 0.002</t>
-  </si>
-  <si>
-    <t>μ = 0.099 | σ = 0.008</t>
-  </si>
-  <si>
-    <t>μ = 0.577 | σ = 0.005 | tp = 1021 | tn = 277 | fp = 105 | fn = 127</t>
-  </si>
-  <si>
-    <t>accuracy = 0.848 | sensitivity = 0.889 | specificity = 0.725 | F1 = 0.799</t>
-  </si>
-  <si>
-    <t>μ = 0.109 | σ = 0.006</t>
-  </si>
-  <si>
-    <t>μ = 0.296 | σ = 0.004 | tp = 192 | tn = 242 | fp = 74 | fn = 122</t>
-  </si>
-  <si>
-    <t>accuracy = 0.689 | sensitivity = 0.611 | specificity = 0.766 | F1 = 0.68</t>
-  </si>
-  <si>
-    <t>μ = 0.575 | σ = 0.008 | tp = 1017 | tn = 277 | fp = 113 | fn = 123</t>
-  </si>
-  <si>
-    <t>accuracy = 0.846 | sensitivity = 0.892 | specificity = 0.71 | F1 = 0.791</t>
-  </si>
-  <si>
-    <t>μ = 0.105 | σ = 0.013</t>
-  </si>
-  <si>
-    <t>μ = 0.293 | σ = 0.005 | tp = 225 | tn = 210 | fp = 105 | fn = 90</t>
-  </si>
-  <si>
-    <t>accuracy = 0.69 | sensitivity = 0.714 | specificity = 0.667 | F1 = 0.69</t>
-  </si>
-  <si>
-    <t>μ = 0.187 | σ = 0.003</t>
-  </si>
-  <si>
-    <t>μ = 0.585 | σ = 0.005 | tp = 1018 | tn = 288 | fp = 95 | fn = 129</t>
-  </si>
-  <si>
-    <t>accuracy = 0.854 | sensitivity = 0.888 | specificity = 0.752 | F1 = 0.814</t>
-  </si>
-  <si>
-    <t>μ = 0.122 | σ = 0.004</t>
-  </si>
-  <si>
-    <t>μ = 0.294 | σ = 0.004 | tp = 221 | tn = 209 | fp = 108 | fn = 92</t>
-  </si>
-  <si>
-    <t>accuracy = 0.683 | sensitivity = 0.706 | specificity = 0.659 | F1 = 0.682</t>
-  </si>
-  <si>
-    <t>μ = 0.189 | σ = 0.002</t>
-  </si>
-  <si>
-    <t>μ = 0.07 | σ = 0.005 | tp = 44 | tn = 52 | fp = 7 | fn = 7</t>
-  </si>
-  <si>
-    <t>accuracy = 0.873 | sensitivity = 0.863 | specificity = 0.881 | F1 = 0.872</t>
-  </si>
-  <si>
-    <t>μ = 0.173 | σ = 0.005</t>
-  </si>
-  <si>
-    <t>μ = 0.072 | σ = 0.006 | tp = 38 | tn = 50 | fp = 8 | fn = 14</t>
-  </si>
-  <si>
-    <t>accuracy = 0.8 | sensitivity = 0.731 | specificity = 0.862 | F1 = 0.791</t>
-  </si>
-  <si>
-    <t>μ = 0.173 | σ = 0.006</t>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>0.01, 0.001, 0.0001</t>
+  </si>
+  <si>
+    <t>Layers</t>
+  </si>
+  <si>
+    <t>2, 3, 4</t>
+  </si>
+  <si>
+    <t>4, 8</t>
+  </si>
+  <si>
+    <t>351 min</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 380 min</t>
+  </si>
+  <si>
+    <t>1688 min</t>
+  </si>
+  <si>
+    <t>Optimisation time</t>
   </si>
   <si>
     <r>
@@ -1372,6 +1210,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFD4D4D4"/>
         <rFont val="Consolas"/>
@@ -1380,24 +1219,17 @@
       <t>=4</t>
     </r>
   </si>
-  <si>
-    <t>μ = 0.079 | σ = 0.012 | tp = 41 | tn = 46 | fp = 11 | fn = 12</t>
-  </si>
-  <si>
-    <t>accuracy = 0.791 | sensitivity = 0.774 | specificity = 0.807 | F1 = 0.79</t>
-  </si>
-  <si>
-    <t>μ = 0.170 | σ = 0.007</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1428,21 +1260,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFD4D4D4"/>
       <name val="Consolas"/>
       <family val="3"/>
@@ -1456,18 +1273,87 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF9CDCFE"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFB5CEA8"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1507,6 +1393,17 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.24994659260841701"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1543,43 +1440,87 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="3" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Comma" xfId="5" builtinId="3"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Input" xfId="3" builtinId="20"/>
+    <cellStyle name="Neutral" xfId="6" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="5" builtinId="5"/>
+    <cellStyle name="Percent" xfId="4" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1635,7 +1576,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$N$4</c:f>
+              <c:f>Comparisons!$N$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1656,7 +1597,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet3!$M$5:$M$7</c:f>
+              <c:f>Comparisons!$M$5:$M$7</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1673,12 +1614,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$N$5:$N$7</c:f>
+              <c:f>Comparisons!$N$5:$N$7</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>-2.3784879129912413E-2</c:v>
+                  <c:v>2.0138361808253829E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>7.4168447145222263E-2</c:v>
@@ -1700,7 +1641,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$O$4</c:f>
+              <c:f>Comparisons!$O$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1721,7 +1662,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet3!$M$5:$M$7</c:f>
+              <c:f>Comparisons!$M$5:$M$7</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1738,12 +1679,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$O$5:$O$7</c:f>
+              <c:f>Comparisons!$O$5:$O$7</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.15928542584481012</c:v>
+                  <c:v>0.15247243168575927</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.2837649679754981E-2</c:v>
@@ -1980,7 +1921,1045 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$B$1</c:f>
+              <c:f>Comparisons!$K$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.5462668816039986E-17"/>
+                  <c:y val="9.2592592592592587E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-CD16-4E22-A443-E19C1DAE857F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.0925337632079971E-17"/>
+                  <c:y val="9.2592592592592587E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-CD16-4E22-A443-E19C1DAE857F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.7777777777777779E-3"/>
+                  <c:y val="9.2592592592592546E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-CD16-4E22-A443-E19C1DAE857F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Comparisons!$J$14:$J$16</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>MLP</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CNN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>TCN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Comparisons!$K$14:$K$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.24266666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23566666666666669</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CD16-4E22-A443-E19C1DAE857F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparisons!$L$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Single</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.0925337632079971E-17"/>
+                  <c:y val="0.10648148148148148"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-CD16-4E22-A443-E19C1DAE857F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="0.10648148148148144"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-CD16-4E22-A443-E19C1DAE857F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="0.10648148148148148"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-CD16-4E22-A443-E19C1DAE857F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:alpha val="52000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="36000" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                </c15:spPr>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Comparisons!$J$14:$J$16</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>MLP</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CNN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>TCN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Comparisons!$L$14:$L$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.23333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.22766666666666668</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CD16-4E22-A443-E19C1DAE857F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1641727840"/>
+        <c:axId val="1641736992"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1641727840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1641736992"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1641736992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.25"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1641727840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Grid search times'!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MLP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Grid search times'!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Train Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Grid search times'!$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>27.083333333333332</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FDC6-48B2-BE86-9FD3E5D79574}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Grid search times'!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CNN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Grid search times'!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Train Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Grid search times'!$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>29.320987654320987</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FDC6-48B2-BE86-9FD3E5D79574}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Grid search times'!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TCN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Grid search times'!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Train Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Grid search times'!$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>88.168724279835388</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FDC6-48B2-BE86-9FD3E5D79574}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1078783536"/>
+        <c:axId val="1078786864"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1078783536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1078786864"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1078786864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-ZA"/>
+                  <a:t>Train Time (minutes)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1078783536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Directional Accuracy'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2063,7 +3042,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$4</c:f>
+              <c:f>'Directional Accuracy'!$A$2:$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2080,25 +3059,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$2:$B$4</c:f>
+              <c:f>'Directional Accuracy'!$B$2:$B$4</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.90100000000000002</c:v>
+                  <c:v>0.86</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.872</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.90100000000000002</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BD22-49A2-AF7F-E6338660CD68}"/>
+              <c16:uniqueId val="{00000000-A8E5-4E33-A4A3-9EE3B56725D0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2107,7 +3086,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$C$1</c:f>
+              <c:f>'Directional Accuracy'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2190,7 +3169,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$4</c:f>
+              <c:f>'Directional Accuracy'!$A$2:$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2207,25 +3186,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$C$2:$C$4</c:f>
+              <c:f>'Directional Accuracy'!$C$2:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.83520000000000005</c:v>
+                  <c:v>0.84399999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.84570000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.84670000000000001</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BD22-49A2-AF7F-E6338660CD68}"/>
+              <c16:uniqueId val="{00000001-A8E5-4E33-A4A3-9EE3B56725D0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2234,7 +3213,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$1</c:f>
+              <c:f>'Directional Accuracy'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2317,7 +3296,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$4</c:f>
+              <c:f>'Directional Accuracy'!$A$2:$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2334,25 +3313,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$D$2:$D$4</c:f>
+              <c:f>'Directional Accuracy'!$D$2:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.67649999999999999</c:v>
+                  <c:v>0.66700000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.69210000000000005</c:v>
+                  <c:v>0.65500000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.71089999999999998</c:v>
+                  <c:v>0.67500000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-BD22-49A2-AF7F-E6338660CD68}"/>
+              <c16:uniqueId val="{00000002-A8E5-4E33-A4A3-9EE3B56725D0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2553,7 +3532,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2579,11 +3558,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$B$11</c:f>
+              <c:f>'Directional Accuracy'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Dataset 1 dir acc</c:v>
+                  <c:v>Temp Dir Acc</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2598,9 +3577,71 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:alpha val="49000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$12:$A$14</c:f>
+              <c:f>'Directional Accuracy'!$A$12:$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2617,9 +3658,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$12:$B$14</c:f>
+              <c:f>'Directional Accuracy'!$B$12:$B$14</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.83</c:v>
@@ -2635,7 +3676,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5BEC-476D-BED1-0B687974ECD6}"/>
+              <c16:uniqueId val="{00000000-A9B7-46C6-A138-729DC642937D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2644,11 +3685,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$C$11</c:f>
+              <c:f>'Directional Accuracy'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Dataset 2 dir acc</c:v>
+                  <c:v>S&amp;P500 Dir Acc</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2663,9 +3704,71 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:alpha val="42000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$12:$A$14</c:f>
+              <c:f>'Directional Accuracy'!$A$12:$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2682,7 +3785,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$C$12:$C$14</c:f>
+              <c:f>'Directional Accuracy'!$C$12:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2700,7 +3803,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5BEC-476D-BED1-0B687974ECD6}"/>
+              <c16:uniqueId val="{00000001-A9B7-46C6-A138-729DC642937D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2709,11 +3812,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$11</c:f>
+              <c:f>'Directional Accuracy'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Dataset 3 dir acc</c:v>
+                  <c:v>Voltage Dir Acc</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2728,9 +3831,71 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:alpha val="46000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$12:$A$14</c:f>
+              <c:f>'Directional Accuracy'!$A$12:$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2747,7 +3912,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$D$12:$D$14</c:f>
+              <c:f>'Directional Accuracy'!$D$12:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2765,13 +3930,14 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5BEC-476D-BED1-0B687974ECD6}"/>
+              <c16:uniqueId val="{00000002-A9B7-46C6-A138-729DC642937D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -2779,11 +3945,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="72953520"/>
-        <c:axId val="72950608"/>
+        <c:axId val="207493568"/>
+        <c:axId val="207494400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="72953520"/>
+        <c:axId val="207493568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2826,7 +3992,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72950608"/>
+        <c:crossAx val="207494400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2834,7 +4000,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72950608"/>
+        <c:axId val="207494400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2854,7 +4020,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2885,7 +4051,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72953520"/>
+        <c:crossAx val="207493568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3082,6 +4248,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -4591,20 +5797,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4629,6 +6338,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77E44A7B-19D5-41D6-856E-FE02D3468B3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4636,23 +6381,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>419098</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5C1692F-DCDB-44B8-90BD-510AF09A180D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA72803C-E148-4F0F-AE20-7E779AE28B19}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4670,29 +6415,74 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>380998</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1809748</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1209674</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CC5EFEA-C12D-4473-AFDA-D0F250A597FF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE17A3E8-8051-452E-88EB-F40D5D6F3339}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1476376</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5CB9D62-5CCD-4F9A-9B37-4290A2314F11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5009,887 +6799,669 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629B2861-A4CC-4482-800E-BCD91611FC59}">
-  <dimension ref="A1:Q60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C006BD0-0A26-427A-8994-2B0E881204B0}">
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A2" sqref="A2:A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" customWidth="1"/>
-    <col min="3" max="3" width="38.140625" customWidth="1"/>
-    <col min="4" max="4" width="36" customWidth="1"/>
-    <col min="5" max="5" width="34.28515625" customWidth="1"/>
-    <col min="6" max="6" width="29.140625" customWidth="1"/>
-    <col min="7" max="7" width="40.28515625" customWidth="1"/>
+    <col min="2" max="2" width="56.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" customWidth="1"/>
+    <col min="4" max="4" width="59.5703125" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" customWidth="1"/>
+    <col min="6" max="6" width="60.28515625" customWidth="1"/>
+    <col min="7" max="7" width="46.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15"/>
+      <c r="B1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="D1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>6.9723379906647495E-2</v>
-      </c>
-      <c r="C2">
-        <v>0.163066051892612</v>
-      </c>
-      <c r="D2">
-        <v>0.58752139590241204</v>
-      </c>
-      <c r="E2">
-        <v>9.1587665251955899E-2</v>
-      </c>
-      <c r="F2">
-        <v>0.29444902926800098</v>
-      </c>
-      <c r="G2">
-        <v>0.18559263568562201</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>6.2742389105310298E-2</v>
-      </c>
-      <c r="C3">
-        <v>0.16583468169374199</v>
-      </c>
-      <c r="D3">
-        <v>0.56262987015147603</v>
-      </c>
-      <c r="E3">
-        <v>9.6333108890613195E-2</v>
-      </c>
-      <c r="F3">
-        <v>0.29369014931762599</v>
-      </c>
-      <c r="G3">
-        <v>0.18729700583894601</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>6.3098002393211505E-2</v>
-      </c>
-      <c r="C4">
-        <v>0.16430657827480999</v>
-      </c>
-      <c r="D4">
-        <v>0.58760198052976798</v>
-      </c>
-      <c r="E4">
-        <v>8.88360880836295E-2</v>
-      </c>
-      <c r="F4">
-        <v>0.29833818300974302</v>
-      </c>
-      <c r="G4">
-        <v>0.18935689743628301</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>5.5853021033576603E-2</v>
-      </c>
-      <c r="C5">
-        <v>0.16290799443971801</v>
-      </c>
-      <c r="D5">
-        <v>0.55813278838914304</v>
-      </c>
-      <c r="E5">
-        <v>9.3335003045841095E-2</v>
-      </c>
-      <c r="F5">
-        <v>0.29818727928398098</v>
-      </c>
-      <c r="G5">
-        <v>0.18555441389328201</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>5.8557159204338002E-2</v>
-      </c>
-      <c r="C6">
-        <v>0.163079935523049</v>
-      </c>
-      <c r="D6">
-        <v>0.56365873938764299</v>
-      </c>
-      <c r="E6">
-        <v>9.2139679418572901E-2</v>
-      </c>
-      <c r="F6">
-        <v>0.305304660286493</v>
-      </c>
-      <c r="G6">
-        <v>0.17991036608945199</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>7.0187590168447403E-2</v>
-      </c>
-      <c r="C7">
-        <v>0.16288373026904199</v>
-      </c>
-      <c r="D7">
-        <v>0.57876757403524104</v>
-      </c>
-      <c r="E7">
-        <v>8.4632664109977301E-2</v>
-      </c>
-      <c r="F7">
-        <v>0.29428781471655202</v>
-      </c>
-      <c r="G7">
-        <v>0.188296197163383</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>6.3203094191242995E-2</v>
-      </c>
-      <c r="C8">
-        <v>0.16917012532246201</v>
-      </c>
-      <c r="D8">
-        <v>0.58297771587036096</v>
-      </c>
-      <c r="E8">
-        <v>9.1971971027691807E-2</v>
-      </c>
-      <c r="F8">
-        <v>0.30148593296222798</v>
-      </c>
-      <c r="G8">
-        <v>0.18500339822289999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>7.0775079995089502E-2</v>
-      </c>
-      <c r="C9">
-        <v>0.160481668953286</v>
-      </c>
-      <c r="D9">
-        <v>0.57196744109152298</v>
-      </c>
-      <c r="E9">
-        <v>8.5800742117431897E-2</v>
-      </c>
-      <c r="F9">
-        <v>0.29391333574010597</v>
-      </c>
-      <c r="G9">
-        <v>0.186963844645574</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>6.5462392490359497E-2</v>
-      </c>
-      <c r="C10">
-        <v>0.15986300580857901</v>
-      </c>
-      <c r="D10">
-        <v>0.56686110812812096</v>
-      </c>
-      <c r="E10">
-        <v>8.8976682551513406E-2</v>
-      </c>
-      <c r="F10">
-        <v>0.28962086541818299</v>
-      </c>
-      <c r="G10">
-        <v>0.186918778394881</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>6.6337928968508597E-2</v>
-      </c>
-      <c r="C11">
-        <v>0.16840511019447099</v>
-      </c>
-      <c r="D11">
-        <v>0.56053249991988296</v>
-      </c>
-      <c r="E11">
-        <v>8.7173177463915993E-2</v>
-      </c>
-      <c r="F11">
-        <v>0.29598146790729701</v>
-      </c>
-      <c r="G11">
-        <v>0.18462464880022</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="B2" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17"/>
+      <c r="B3" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
+      <c r="B5" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
+      <c r="B7" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="26"/>
+      <c r="E8" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="G8" s="22"/>
+    </row>
+    <row r="9" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="26"/>
+      <c r="E9" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="G9" s="22"/>
+    </row>
+    <row r="10" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+    </row>
+    <row r="11" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20"/>
+      <c r="B12" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="28"/>
+      <c r="F12" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="27"/>
+    </row>
+    <row r="13" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B13">
-        <v>5.1021379550000003E-2</v>
-      </c>
-      <c r="C13">
-        <v>0.199309253704468</v>
-      </c>
-      <c r="D13">
-        <v>0.60509028758070105</v>
-      </c>
-      <c r="E13">
-        <v>0.12161115887277101</v>
-      </c>
-      <c r="F13">
-        <v>0.29143619230117301</v>
-      </c>
-      <c r="G13">
-        <v>0.195898873356251</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14">
-        <v>8.1899582679999999E-2</v>
-      </c>
-      <c r="C14">
-        <v>0.19412511383662401</v>
-      </c>
-      <c r="D14">
-        <v>0.59703914721970697</v>
-      </c>
-      <c r="E14">
-        <v>9.4264730882537895E-2</v>
-      </c>
-      <c r="F14">
-        <v>0.28494850847985398</v>
-      </c>
-      <c r="G14">
-        <v>0.17908408600748199</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15">
-        <v>6.2081408570000003E-2</v>
-      </c>
-      <c r="C15">
-        <v>0.17846852939667501</v>
-      </c>
-      <c r="D15">
-        <v>0.60139118579086204</v>
-      </c>
-      <c r="E15">
-        <v>0.126537881844039</v>
-      </c>
-      <c r="F15">
-        <v>0.28683105265101999</v>
-      </c>
-      <c r="G15">
-        <v>0.193728749201908</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16">
-        <v>7.1551070081374901E-2</v>
-      </c>
-      <c r="C16">
-        <v>0.18612781730105399</v>
-      </c>
-      <c r="D16">
-        <v>0.59733188778022495</v>
-      </c>
-      <c r="E16">
-        <v>9.3953943946526203E-2</v>
-      </c>
-      <c r="F16">
-        <v>0.31007742036146801</v>
-      </c>
-      <c r="G16">
-        <v>0.18082284908695101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17">
-        <v>6.1357602017939702E-2</v>
-      </c>
-      <c r="C17">
-        <v>0.17829598786321599</v>
-      </c>
-      <c r="D17">
-        <v>0.60360304807275</v>
-      </c>
-      <c r="E17">
-        <v>0.104489373231584</v>
-      </c>
-      <c r="F17">
-        <v>0.30278905559285502</v>
-      </c>
-      <c r="G17">
-        <v>0.18343193958829601</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18">
-        <v>6.5981061199342994E-2</v>
-      </c>
-      <c r="C18">
-        <v>0.18998865750927299</v>
-      </c>
-      <c r="D18">
-        <v>0.60327103976422802</v>
-      </c>
-      <c r="E18">
-        <v>9.3313265331199602E-2</v>
-      </c>
-      <c r="F18">
-        <v>0.31364301023772101</v>
-      </c>
-      <c r="G18">
-        <v>0.17901713295876001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19">
-        <v>8.3340533387553803E-2</v>
-      </c>
-      <c r="C19">
-        <v>0.18771751026438199</v>
-      </c>
-      <c r="D19">
-        <v>0.603528414593826</v>
-      </c>
-      <c r="E19">
-        <v>0.10974254119372299</v>
-      </c>
-      <c r="F19">
-        <v>0.30432411679125798</v>
-      </c>
-      <c r="G19">
-        <v>0.17770058446926401</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20">
-        <v>6.7632692141721504E-2</v>
-      </c>
-      <c r="C20">
-        <v>0.176327851599065</v>
-      </c>
-      <c r="D20">
-        <v>0.59517083071802102</v>
-      </c>
-      <c r="E20">
-        <v>0.11500209698566199</v>
-      </c>
-      <c r="F20">
-        <v>0.30048788304344298</v>
-      </c>
-      <c r="G20">
-        <v>0.19872631659141801</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21">
-        <v>5.9342703850982899E-2</v>
-      </c>
-      <c r="C21">
-        <v>0.192694426155023</v>
-      </c>
-      <c r="D21">
-        <v>0.60129248764379895</v>
-      </c>
-      <c r="E21">
-        <v>9.5434346641577003E-2</v>
-      </c>
-      <c r="F21">
-        <v>0.31024451501241201</v>
-      </c>
-      <c r="G21">
-        <v>0.19046822182485801</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22">
-        <v>5.2229954553038298E-2</v>
-      </c>
-      <c r="C22">
-        <v>0.18253197951547301</v>
-      </c>
-      <c r="D22">
-        <v>0.59997112780881201</v>
-      </c>
-      <c r="E22">
-        <v>0.12033468226202999</v>
-      </c>
-      <c r="F22">
-        <v>0.30649802664468401</v>
-      </c>
-      <c r="G22">
-        <v>0.18242305493841099</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="B13" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
+      <c r="B14" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18"/>
+      <c r="B15" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="B16" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
+      <c r="B17" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="22"/>
+      <c r="G19" s="26"/>
+    </row>
+    <row r="20" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" s="22"/>
+      <c r="G20" s="26"/>
+    </row>
+    <row r="21" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+    </row>
+    <row r="22" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="18"/>
+      <c r="B23" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="27"/>
+    </row>
+    <row r="24" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B24">
-        <v>5.6271501246469603E-2</v>
-      </c>
-      <c r="C24">
-        <v>0.175355538807307</v>
-      </c>
-      <c r="D24">
-        <v>0.555922637470603</v>
-      </c>
-      <c r="E24">
-        <v>0.10675477945679</v>
-      </c>
-      <c r="F24">
-        <v>0.30128096894202699</v>
-      </c>
-      <c r="G24">
-        <v>0.182753272528903</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25">
-        <v>6.1525344819067899E-2</v>
-      </c>
-      <c r="C25">
-        <v>0.163576587261303</v>
-      </c>
-      <c r="D25">
-        <v>0.55705833823961504</v>
-      </c>
-      <c r="E25">
-        <v>0.11094080112475301</v>
-      </c>
-      <c r="F25">
-        <v>0.286291046135706</v>
-      </c>
-      <c r="G25">
-        <v>0.185701606882298</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26">
-        <v>5.38901330862381E-2</v>
-      </c>
-      <c r="C26">
-        <v>0.16652849301121</v>
-      </c>
-      <c r="D26">
-        <v>0.55880677222808695</v>
-      </c>
-      <c r="E26">
-        <v>9.7585676441632893E-2</v>
-      </c>
-      <c r="F26">
-        <v>0.28647681378949602</v>
-      </c>
-      <c r="G26">
-        <v>0.181325187379905</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27">
-        <v>5.3677489963570899E-2</v>
-      </c>
-      <c r="C27">
-        <v>0.16607648070696099</v>
-      </c>
-      <c r="D27">
-        <v>0.56442578787421904</v>
-      </c>
-      <c r="E27">
-        <v>9.69525806241118E-2</v>
-      </c>
-      <c r="F27">
-        <v>0.28526215350365403</v>
-      </c>
-      <c r="G27">
-        <v>0.187981721837926</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28">
-        <v>6.6763582633142707E-2</v>
-      </c>
-      <c r="C28">
-        <v>0.16769627716334301</v>
-      </c>
-      <c r="D28">
-        <v>0.55802035746560896</v>
-      </c>
-      <c r="E28">
-        <v>9.8785346181134007E-2</v>
-      </c>
-      <c r="F28">
-        <v>0.28890043303357199</v>
-      </c>
-      <c r="G28">
-        <v>0.17786729474512</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29">
-        <v>5.6315977672277799E-2</v>
-      </c>
-      <c r="C29">
-        <v>0.16493941577457899</v>
-      </c>
-      <c r="D29">
-        <v>0.56488304529118605</v>
-      </c>
-      <c r="E29">
-        <v>0.10640709742238</v>
-      </c>
-      <c r="F29">
-        <v>0.291419497845883</v>
-      </c>
-      <c r="G29">
-        <v>0.18625279709296499</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B30">
-        <v>5.3565302557804E-2</v>
-      </c>
-      <c r="C30">
-        <v>0.15713564097858701</v>
-      </c>
-      <c r="D30">
-        <v>0.56387172442131495</v>
-      </c>
-      <c r="E30">
-        <v>9.3455911348622495E-2</v>
-      </c>
-      <c r="F30">
-        <v>0.312745736778408</v>
-      </c>
-      <c r="G30">
-        <v>0.18842146863797801</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B31">
-        <v>6.5027259064902906E-2</v>
-      </c>
-      <c r="C31">
-        <v>0.16710751438398</v>
-      </c>
-      <c r="D31">
-        <v>0.55729476907050701</v>
-      </c>
-      <c r="E31">
-        <v>9.7267010546777596E-2</v>
-      </c>
-      <c r="F31">
-        <v>0.28924899915292801</v>
-      </c>
-      <c r="G31">
-        <v>0.187147623982788</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32">
-        <v>5.4485753578542198E-2</v>
-      </c>
-      <c r="C32">
-        <v>0.16456667316794199</v>
-      </c>
-      <c r="D32">
-        <v>0.55999036404927904</v>
-      </c>
-      <c r="E32">
-        <v>0.101014292270073</v>
-      </c>
-      <c r="F32">
-        <v>0.290113112119395</v>
-      </c>
-      <c r="G32">
-        <v>0.18326002591589299</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B33">
-        <v>6.8262764236455303E-2</v>
-      </c>
-      <c r="C33">
-        <v>0.161707310571444</v>
-      </c>
-      <c r="D33">
-        <v>0.55678098147153898</v>
-      </c>
-      <c r="E33">
-        <v>0.110619262476481</v>
-      </c>
-      <c r="F33">
-        <v>0.28891425584312203</v>
-      </c>
-      <c r="G33">
-        <v>0.18069909245881099</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" t="s">
-        <v>41</v>
-      </c>
-      <c r="E34" t="s">
-        <v>17</v>
-      </c>
-      <c r="F34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K37" s="7"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M38" s="8"/>
-      <c r="Q38" s="8"/>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M39" s="8"/>
-      <c r="Q39" s="8"/>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M40" s="8"/>
-      <c r="Q40" s="8"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M41" s="8"/>
-      <c r="Q41" s="8"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M42" s="8"/>
-      <c r="Q42" s="8"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M43" s="8"/>
-      <c r="Q43" s="8"/>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M44" s="8"/>
-      <c r="Q44" s="8"/>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M45" s="8"/>
-      <c r="Q45" s="8"/>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M46" s="8"/>
-      <c r="Q46" s="8"/>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M47" s="8"/>
-      <c r="Q47" s="8"/>
-    </row>
-    <row r="51" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I51" s="8"/>
-      <c r="O51" s="8"/>
-    </row>
-    <row r="52" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I52" s="8"/>
-      <c r="O52" s="8"/>
-    </row>
-    <row r="53" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I53" s="8"/>
-      <c r="O53" s="8"/>
-    </row>
-    <row r="54" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I54" s="8"/>
-      <c r="O54" s="8"/>
-    </row>
-    <row r="55" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I55" s="8"/>
-      <c r="O55" s="8"/>
-    </row>
-    <row r="56" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I56" s="8"/>
-      <c r="O56" s="8"/>
-    </row>
-    <row r="57" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I57" s="8"/>
-      <c r="O57" s="8"/>
-    </row>
-    <row r="58" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I58" s="8"/>
-      <c r="O58" s="8"/>
-    </row>
-    <row r="59" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I59" s="8"/>
-      <c r="O59" s="8"/>
-    </row>
-    <row r="60" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I60" s="8"/>
-      <c r="O60" s="8"/>
+      <c r="B24" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="19"/>
+      <c r="B25" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="19"/>
+      <c r="B26" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="19"/>
+      <c r="B27" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="19"/>
+      <c r="B28" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
+      <c r="B29" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="19"/>
+      <c r="B30" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="G30" s="22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="19"/>
+      <c r="B31" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="G31" s="22" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="19"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+    </row>
+    <row r="33" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="F33" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="G33" s="27"/>
+    </row>
+    <row r="34" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="19"/>
+      <c r="B34" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="G34" s="27" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5899,587 +7471,616 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7A0AA2F-4BA7-491B-8059-D4A89EFDF919}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="12" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="58.85546875" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="59.42578125" customWidth="1"/>
+    <col min="4" max="4" width="60.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="60.140625" customWidth="1"/>
     <col min="7" max="7" width="25.5703125" customWidth="1"/>
-    <col min="8" max="8" width="59.5703125" customWidth="1"/>
-    <col min="9" max="9" width="32.42578125" customWidth="1"/>
+    <col min="8" max="8" width="60.42578125" customWidth="1"/>
+    <col min="9" max="9" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D1" s="1" t="s">
+    <row r="1" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="F1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="15" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" s="23"/>
+      <c r="H2" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="I2" s="29"/>
+    </row>
+    <row r="3" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="G3" s="23"/>
+      <c r="H3" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="I3" s="29"/>
+    </row>
+    <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="G4" s="23"/>
+      <c r="H4" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="I4" s="29"/>
+    </row>
+    <row r="5" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="G5" s="23"/>
+      <c r="H5" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="I5" s="29"/>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="G6" s="23"/>
+      <c r="H6" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="I6" s="29"/>
+    </row>
+    <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="G7" s="23"/>
+      <c r="H7" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="I7" s="29"/>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="G8" s="23"/>
+      <c r="H8" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="I8" s="29"/>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="G9" s="23"/>
+      <c r="H9" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="I9" s="29"/>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="29"/>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15" t="s">
+      <c r="E11" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12" s="27"/>
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="G13" s="23"/>
+      <c r="H13" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="I13" s="23"/>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="G14" s="23"/>
+      <c r="H14" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="I14" s="23"/>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="G15" s="23"/>
+      <c r="H15" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="I15" s="23"/>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="G16" s="23"/>
+      <c r="H16" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="I16" s="23"/>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="G17" s="23"/>
+      <c r="H17" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="I17" s="23"/>
+    </row>
+    <row r="18" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="G18" s="23"/>
+      <c r="H18" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="I18" s="23"/>
+    </row>
+    <row r="19" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="G19" s="23"/>
+      <c r="H19" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="I19" s="23"/>
+    </row>
+    <row r="20" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="G20" s="23"/>
+      <c r="H20" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="I20" s="23"/>
+    </row>
+    <row r="21" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+    </row>
+    <row r="22" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="H2" s="15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="15" t="s">
+      <c r="F22" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="I22" s="30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="18"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="I23" s="30"/>
+    </row>
+    <row r="24" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="G24" s="23"/>
+      <c r="H24" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="I24" s="23"/>
+    </row>
+    <row r="25" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="19"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="G25" s="23"/>
+      <c r="H25" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="I25" s="23"/>
+    </row>
+    <row r="26" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="19"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="G26" s="23"/>
+      <c r="H26" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="I26" s="23"/>
+    </row>
+    <row r="27" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="19"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="G27" s="23"/>
+      <c r="H27" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="I27" s="23"/>
+    </row>
+    <row r="28" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="19"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="G28" s="23"/>
+      <c r="H28" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="I28" s="23"/>
+    </row>
+    <row r="29" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="G29" s="23"/>
+      <c r="H29" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="I29" s="23"/>
+    </row>
+    <row r="30" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="19"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="G30" s="23"/>
+      <c r="H30" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="I30" s="23"/>
+    </row>
+    <row r="31" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="19"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="G31" s="23"/>
+      <c r="H31" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="I31" s="23"/>
+    </row>
+    <row r="32" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="19"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+    </row>
+    <row r="33" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="K5" s="8"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15" t="s">
+      <c r="E33" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="F33" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="G33" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="H33" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="I33" s="30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="19"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="H6" s="15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="K7" s="8"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="F8" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="K8" s="8"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="F9" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="K9" s="8"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="K10" s="8"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" t="s">
-        <v>126</v>
-      </c>
-      <c r="E11" t="s">
-        <v>128</v>
-      </c>
-      <c r="F11" t="s">
-        <v>120</v>
-      </c>
-      <c r="G11" t="s">
-        <v>122</v>
-      </c>
-      <c r="H11" t="s">
-        <v>123</v>
-      </c>
-      <c r="I11" t="s">
-        <v>125</v>
-      </c>
-      <c r="K11" s="8"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" t="s">
-        <v>127</v>
-      </c>
-      <c r="F12" t="s">
-        <v>121</v>
-      </c>
-      <c r="H12" t="s">
-        <v>124</v>
-      </c>
-      <c r="K12" s="8"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="K13" s="8"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="K14" s="8"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="K15" s="8"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="K16" s="8"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="F19" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="F20" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" t="s">
-        <v>133</v>
-      </c>
-      <c r="E22" t="s">
-        <v>135</v>
-      </c>
-      <c r="F22" t="s">
-        <v>114</v>
-      </c>
-      <c r="G22" t="s">
-        <v>116</v>
-      </c>
-      <c r="H22" t="s">
-        <v>117</v>
-      </c>
-      <c r="I22" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" t="s">
-        <v>134</v>
-      </c>
-      <c r="F23" t="s">
-        <v>115</v>
-      </c>
-      <c r="H23" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="H25" s="15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="H27" s="15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="H28" s="15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="H29" s="15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="H30" s="15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="H31" s="15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" t="s">
-        <v>129</v>
-      </c>
-      <c r="E33" t="s">
-        <v>131</v>
-      </c>
-      <c r="F33" t="s">
-        <v>109</v>
-      </c>
-      <c r="G33" t="s">
-        <v>111</v>
-      </c>
-      <c r="H33" t="s">
-        <v>112</v>
-      </c>
-      <c r="I33" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" t="s">
-        <v>130</v>
-      </c>
-      <c r="F34" t="s">
-        <v>110</v>
-      </c>
-      <c r="H34" t="s">
-        <v>113</v>
-      </c>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="I34" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6489,125 +8090,128 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FB3198F-E56D-4B29-B40E-9A4760DEC141}">
-  <dimension ref="A2:T11"/>
+  <dimension ref="A2:T33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AB31" sqref="AB31"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="13" max="13" width="12.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="N4" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="O4" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="11">
-        <f>((0.072/0.067)-1)</f>
-        <v>7.4626865671641562E-2</v>
-      </c>
-      <c r="D5" s="11">
-        <f>((0.164/0.199)-1)</f>
-        <v>-0.17587939698492461</v>
-      </c>
-      <c r="E5" s="11">
+      <c r="C5" s="8">
+        <f>((0.066/0.07)-1)</f>
+        <v>-5.7142857142857162E-2</v>
+      </c>
+      <c r="D5" s="8">
+        <f>((0.163/0.193)-1)</f>
+        <v>-0.15544041450777202</v>
+      </c>
+      <c r="E5" s="8">
         <f>((0.572/0.586)-1)</f>
         <v>-2.3890784982935176E-2</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="8">
         <f>((0.09/0.127)-1)</f>
         <v>-0.29133858267716539</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="8">
         <f>((0.297/0.291)-1)</f>
         <v>2.0618556701030855E-2</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="8">
         <f>((0.186/0.188)-1)</f>
         <v>-1.0638297872340385E-2</v>
       </c>
       <c r="M5" t="s">
         <v>1</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="9">
         <f>-AVERAGE(C5,E5,G5)</f>
-        <v>-2.3784879129912413E-2</v>
-      </c>
-      <c r="O5" s="12">
+        <v>2.0138361808253829E-2</v>
+      </c>
+      <c r="O5" s="9">
         <f>-AVERAGE(D5,F5,H5)</f>
-        <v>0.15928542584481012</v>
-      </c>
-      <c r="T5" s="12">
+        <v>0.15247243168575927</v>
+      </c>
+      <c r="T5" s="9">
         <f>AVERAGE(N5:O7)</f>
-        <v>7.2161867449306694E-2</v>
+        <v>7.8346908579159255E-2</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="8">
         <f>((0.066/0.082)-1)</f>
         <v>-0.19512195121951215</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="8">
         <f>((0.187/0.165)-1)</f>
         <v>0.1333333333333333</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="8">
         <f>((0.568/0.586)-1)</f>
         <v>-3.0716723549488067E-2</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="8">
         <f>((0.107/0.126)-1)</f>
         <v>-0.15079365079365081</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="8">
         <f>((0.301/0.3)-1)</f>
         <v>3.3333333333334103E-3</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="8">
         <f>((0.186/0.19)-1)</f>
         <v>-2.1052631578947434E-2</v>
       </c>
       <c r="M6" t="s">
         <v>2</v>
       </c>
-      <c r="N6" s="12">
+      <c r="N6" s="9">
         <f t="shared" ref="N6:N7" si="0">-AVERAGE(C6,E6,G6)</f>
         <v>7.4168447145222263E-2</v>
       </c>
-      <c r="O6" s="12">
+      <c r="O6" s="9">
         <f t="shared" ref="O6:O7" si="1">-AVERAGE(D6,F6,H6)</f>
         <v>1.2837649679754981E-2</v>
       </c>
@@ -6616,46 +8220,409 @@
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="8">
         <f>((0.065/0.076)-1)</f>
         <v>-0.14473684210526305</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="8">
         <f>((0.163/0.203)-1)</f>
         <v>-0.19704433497536944</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="8">
         <f>((0.564/0.625)-1)</f>
         <v>-9.7600000000000131E-2</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="8">
         <f>((0.102/0.119)-1)</f>
         <v>-0.1428571428571429</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="8">
         <f>((0.292/0.302)-1)</f>
         <v>-3.3112582781457012E-2</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="8">
         <f>((0.184/0.187)-1)</f>
         <v>-1.6042780748663166E-2</v>
       </c>
       <c r="M7" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="12">
+      <c r="N7" s="9">
         <f t="shared" si="0"/>
         <v>9.1816474962240061E-2</v>
       </c>
-      <c r="O7" s="12">
+      <c r="O7" s="9">
         <f t="shared" si="1"/>
         <v>0.11864808619372517</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="K13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="13">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="D14" s="14">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="F14">
+        <f>AVERAGE(C14:E14)</f>
+        <v>0.24266666666666667</v>
+      </c>
+      <c r="J14" t="s">
+        <v>1</v>
+      </c>
+      <c r="K14" s="13">
+        <f>F14</f>
+        <v>0.24266666666666667</v>
+      </c>
+      <c r="L14" s="13">
+        <f>F20</f>
+        <v>0.23333333333333331</v>
+      </c>
+      <c r="M14" s="31">
+        <f>((L14/K14)-1)</f>
+        <v>-3.8461538461538547E-2</v>
+      </c>
+      <c r="N14" s="11">
+        <f>AVERAGE(M14:M16)</f>
+        <v>-3.1228128658084515E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="13">
+        <v>0.125</v>
+      </c>
+      <c r="D15" s="13">
+        <v>0.34</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0.24</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ref="F15:F16" si="2">AVERAGE(C15:E15)</f>
+        <v>0.23500000000000001</v>
+      </c>
+      <c r="J15" t="s">
+        <v>2</v>
+      </c>
+      <c r="K15" s="13">
+        <f t="shared" ref="K15:K16" si="3">F15</f>
+        <v>0.23500000000000001</v>
+      </c>
+      <c r="L15" s="13">
+        <f t="shared" ref="L15:L16" si="4">F21</f>
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="M15" s="31">
+        <f t="shared" ref="M15:M16" si="5">((L15/K15)-1)</f>
+        <v>-2.1276595744680993E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="13">
+        <v>0.123</v>
+      </c>
+      <c r="D16" s="13">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="E16" s="13">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>0.23566666666666669</v>
+      </c>
+      <c r="J16" t="s">
+        <v>3</v>
+      </c>
+      <c r="K16" s="13">
+        <f t="shared" si="3"/>
+        <v>0.23566666666666669</v>
+      </c>
+      <c r="L16" s="13">
+        <f t="shared" si="4"/>
+        <v>0.22766666666666668</v>
+      </c>
+      <c r="M16" s="31">
+        <f t="shared" si="5"/>
+        <v>-3.3946251768034008E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" t="s">
+        <v>81</v>
+      </c>
+      <c r="K19">
+        <f>1-K15/K14</f>
+        <v>3.1593406593406592E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="13">
+        <v>0.115</v>
+      </c>
+      <c r="D20" s="14">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="E20" s="13">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="F20">
+        <f>AVERAGE(C20:E20)</f>
+        <v>0.23333333333333331</v>
+      </c>
+      <c r="K20">
+        <f>1-K15/K16</f>
+        <v>2.8288543140028155E-3</v>
+      </c>
+      <c r="L20">
+        <f>1-L16/L15</f>
+        <v>1.0144927536231751E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="13">
+        <v>0.115</v>
+      </c>
+      <c r="D21" s="13">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="E21" s="13">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ref="F21:F22" si="6">AVERAGE(C21:E21)</f>
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="L21">
+        <f>1-L16/L14</f>
+        <v>2.4285714285714133E-2</v>
+      </c>
+      <c r="M21">
+        <f>1-L16/K14</f>
+        <v>6.1813186813186705E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="13">
+        <v>0.11</v>
+      </c>
+      <c r="D22" s="13">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="E22" s="13">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="6"/>
+        <v>0.22766666666666668</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="D26">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="E26">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="F26">
+        <f>AVERAGE(C26:E26)</f>
+        <v>0.3136666666666667</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>6.2E-2</v>
+      </c>
+      <c r="D27">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="E27">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ref="F27:F28" si="7">AVERAGE(C27:E27)</f>
+        <v>0.309</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>0.06</v>
+      </c>
+      <c r="D28">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E28">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="7"/>
+        <v>0.30666666666666664</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" t="s">
+        <v>79</v>
+      </c>
+      <c r="F30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="D31">
+        <v>0.107</v>
+      </c>
+      <c r="E31">
+        <v>0.187</v>
+      </c>
+      <c r="F31">
+        <f>AVERAGE(C31:E31)</f>
+        <v>0.15233333333333335</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="D32">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="E32">
+        <v>0.185</v>
+      </c>
+      <c r="F32">
+        <f t="shared" ref="F32:F33" si="8">AVERAGE(C32:E32)</f>
+        <v>0.15133333333333335</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="D33">
+        <v>0.1</v>
+      </c>
+      <c r="E33">
+        <v>0.185</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="8"/>
+        <v>0.14899999999999999</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6664,11 +8631,145 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B92604-EB47-492A-B3A4-00C8701EACBE}">
-  <dimension ref="A1:L22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03464F4-DCE4-401A-A5BF-C981E690B70B}">
+  <dimension ref="A2:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>41</v>
+      </c>
+      <c r="C3">
+        <v>39</v>
+      </c>
+      <c r="D3">
+        <v>37</v>
+      </c>
+      <c r="E3">
+        <f>SUM(B3:D3)</f>
+        <v>117</v>
+      </c>
+      <c r="F3">
+        <f>144+144+144</f>
+        <v>432</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>65</v>
+      </c>
+      <c r="C4">
+        <v>64</v>
+      </c>
+      <c r="D4">
+        <v>61</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E5" si="0">SUM(B4:D4)</f>
+        <v>190</v>
+      </c>
+      <c r="F4">
+        <f>216+216+216</f>
+        <v>648</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>312</v>
+      </c>
+      <c r="C5">
+        <v>272</v>
+      </c>
+      <c r="D5">
+        <v>273</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>857</v>
+      </c>
+      <c r="F5">
+        <f>324*3</f>
+        <v>972</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <f>E3*100/F3</f>
+        <v>27.083333333333332</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <f>E4*100/F4</f>
+        <v>29.320987654320987</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <f>E5*100/F5</f>
+        <v>88.168724279835388</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DA052C-335E-4F09-8E3D-3CBAFB0F3653}">
+  <dimension ref="A1:L19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6676,178 +8777,149 @@
     <col min="2" max="2" width="33.28515625" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
     <col min="4" max="4" width="30.42578125" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" customWidth="1"/>
     <col min="9" max="9" width="9.140625" customWidth="1"/>
     <col min="10" max="10" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="I1" s="2"/>
+        <v>25</v>
+      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14">
-        <v>0.90100000000000002</v>
-      </c>
-      <c r="C2" s="14">
-        <v>0.83520000000000005</v>
-      </c>
-      <c r="D2" s="14">
-        <v>0.67649999999999999</v>
+      <c r="B2" s="11">
+        <v>0.86</v>
+      </c>
+      <c r="C2" s="11">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="D2" s="11">
+        <v>0.66700000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="14">
-        <v>0.872</v>
-      </c>
-      <c r="C3" s="14">
+      <c r="B3" s="11">
+        <v>0.85</v>
+      </c>
+      <c r="C3" s="11">
         <v>0.84570000000000001</v>
       </c>
-      <c r="D3" s="14">
-        <v>0.69210000000000005</v>
-      </c>
-      <c r="G3" s="10">
-        <f>SUM(B2:D2)/3</f>
-        <v>0.80423333333333336</v>
-      </c>
-      <c r="J3" s="13">
-        <f>(SUM(B2:D2)-SUM(B12:D12))/3</f>
-        <v>3.1066666666666798E-2</v>
-      </c>
-      <c r="L3" s="12">
-        <f>SUM(B12:D12)</f>
-        <v>2.3194999999999997</v>
-      </c>
+      <c r="D3" s="11">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="J3" s="10"/>
+      <c r="L3" s="9"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="14">
-        <v>0.90100000000000002</v>
-      </c>
-      <c r="C4" s="14">
-        <v>0.84670000000000001</v>
-      </c>
-      <c r="D4" s="14">
-        <v>0.71089999999999998</v>
-      </c>
-      <c r="G4" s="10">
-        <f t="shared" ref="G4:G5" si="0">SUM(B3:D3)/3</f>
-        <v>0.80326666666666668</v>
-      </c>
-      <c r="J4" s="13">
-        <f t="shared" ref="J4:J5" si="1">(SUM(B3:D3)-SUM(B13:D13))/3</f>
-        <v>1.3299999999999942E-2</v>
-      </c>
+      <c r="B4" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0.85</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="J4" s="10"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G5" s="10">
-        <f t="shared" si="0"/>
-        <v>0.81953333333333334</v>
-      </c>
-      <c r="J5" s="13">
-        <f t="shared" si="1"/>
-        <v>3.0666666666666693E-2</v>
-      </c>
+      <c r="G5" s="7"/>
+      <c r="J5" s="10"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="11">
         <v>0.83</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="7">
         <v>0.84189999999999998</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="8">
         <v>0.64759999999999995</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="11">
         <f>AVERAGE(B12:D12)</f>
         <v>0.77316666666666656</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="11">
         <v>0.85</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="7">
         <v>0.83420000000000005</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="8">
         <v>0.68569999999999998</v>
       </c>
-      <c r="E13" s="14">
-        <f t="shared" ref="E13:E14" si="2">AVERAGE(B13:D13)</f>
+      <c r="E13" s="11">
+        <f t="shared" ref="E13:E14" si="0">AVERAGE(B13:D13)</f>
         <v>0.78996666666666682</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="11">
         <v>0.87</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="7">
         <v>0.83950000000000002</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="8">
         <v>0.65710000000000002</v>
       </c>
-      <c r="E14" s="14">
-        <f t="shared" si="2"/>
+      <c r="E14" s="11">
+        <f t="shared" si="0"/>
         <v>0.78886666666666672</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="14"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C22" s="10"/>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6855,685 +8927,145 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C006BD0-0A26-427A-8994-2B0E881204B0}">
-  <dimension ref="A1:G34"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{717B80B4-1DD8-430F-AEE3-FAB212553CAD}">
+  <dimension ref="A2:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24:D31"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="70.140625" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" customWidth="1"/>
-    <col min="4" max="4" width="62.140625" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" customWidth="1"/>
-    <col min="6" max="6" width="60.28515625" customWidth="1"/>
-    <col min="7" max="7" width="46.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="8" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="15" t="s">
+      <c r="B3" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="24" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="15" t="s">
+      <c r="G3" s="24">
+        <v>3</v>
+      </c>
+      <c r="H3" s="24">
+        <v>432</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" s="24">
+        <v>2</v>
+      </c>
+      <c r="G4" s="24">
+        <v>3</v>
+      </c>
+      <c r="H4" s="24">
+        <v>432</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="G8" s="15"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" s="15" t="s">
+      <c r="D5" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="F9" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="G9" s="15"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" t="s">
-        <v>84</v>
-      </c>
-      <c r="F11" t="s">
-        <v>93</v>
-      </c>
-      <c r="G11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" t="s">
-        <v>85</v>
-      </c>
-      <c r="E12" t="s">
-        <v>102</v>
-      </c>
-      <c r="F12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F19" s="15"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="F20" s="15"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" t="s">
-        <v>99</v>
-      </c>
-      <c r="D22" t="s">
-        <v>63</v>
-      </c>
-      <c r="E22" t="s">
-        <v>108</v>
-      </c>
-      <c r="F22" t="s">
-        <v>88</v>
-      </c>
-      <c r="G22" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" t="s">
-        <v>64</v>
-      </c>
-      <c r="F23" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G28" s="15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="G29" s="15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="G31" s="15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" t="s">
-        <v>101</v>
-      </c>
-      <c r="D33" t="s">
-        <v>82</v>
-      </c>
-      <c r="E33" t="s">
-        <v>106</v>
-      </c>
-      <c r="F33" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" t="s">
-        <v>67</v>
-      </c>
-      <c r="D34" t="s">
-        <v>62</v>
-      </c>
-      <c r="F34" t="s">
-        <v>91</v>
-      </c>
-      <c r="G34" t="s">
-        <v>107</v>
+      <c r="G5" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="H5" s="24">
+        <v>648</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="G5" twoDigitTextYear="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
